--- a/dummy2.xlsx
+++ b/dummy2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineeisen/github/oenothera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E19EF38-90BC-1D42-8302-A7827FE513FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EA69F4-CC59-4046-8518-2F4E4164F400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{5F5D0AD8-8A61-874A-B263-7418653EE2EC}"/>
+    <workbookView xWindow="23560" yWindow="10240" windowWidth="27640" windowHeight="16940" xr2:uid="{5F5D0AD8-8A61-874A-B263-7418653EE2EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,43 +27,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>rm3-1</t>
-  </si>
-  <si>
-    <t>rm3-2</t>
-  </si>
-  <si>
-    <t>rm3-4-1</t>
-  </si>
-  <si>
-    <t>rm3-7</t>
-  </si>
-  <si>
-    <t>rm3-8</t>
-  </si>
-  <si>
-    <t>toluene area</t>
-  </si>
-  <si>
-    <t>toluene amt</t>
-  </si>
-  <si>
-    <t>sample vol</t>
-  </si>
-  <si>
-    <t>no hours</t>
-  </si>
-  <si>
-    <t>no flowers</t>
-  </si>
-  <si>
-    <t>fresh mass</t>
-  </si>
-  <si>
-    <t>dry mass</t>
-  </si>
-  <si>
     <t>Sample_ID</t>
+  </si>
+  <si>
+    <t>Toluene_Area</t>
+  </si>
+  <si>
+    <t>Toluene_Amt</t>
+  </si>
+  <si>
+    <t>Sample_Vol</t>
+  </si>
+  <si>
+    <t>No_Hours</t>
+  </si>
+  <si>
+    <t>No_Flowers</t>
+  </si>
+  <si>
+    <t>Fresh_Mass</t>
+  </si>
+  <si>
+    <t>Dry_Mass</t>
+  </si>
+  <si>
+    <t>Samp.rm3-1</t>
+  </si>
+  <si>
+    <t>Samp.rm3-2</t>
+  </si>
+  <si>
+    <t>Samp.rm3-4-1</t>
+  </si>
+  <si>
+    <t>Samp.rm3-7</t>
+  </si>
+  <si>
+    <t>Samp.rm3-8</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,33 +457,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>6397496</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>6955629</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>5670983</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>6409193</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <v>7736314</v>
